--- a/reformatted_data/gene_expression-recreated_template.xlsx
+++ b/reformatted_data/gene_expression-recreated_template.xlsx
@@ -3449,7 +3449,7 @@
     <t>plasmodium falciparum</t>
   </si>
   <si>
-    <t>mycobacterium bovis BCG</t>
+    <t>mycobacterium tuberculosis variant bovis BCG</t>
   </si>
   <si>
     <t>influenza A virus (A/California/7/2009(H1N1)); influenza A virus (A/Perth/16/2009(H3N2)); influenza B virus (B/Brisbane/60/2008)</t>
@@ -3521,7 +3521,7 @@
     <t>mycobacterium tuberculosis</t>
   </si>
   <si>
-    <t>influenza virus vaccine</t>
+    <t>influenza A virus, Influenza B virus</t>
   </si>
   <si>
     <t>vaccine year (influenza only)</t>

--- a/reformatted_data/gene_expression-recreated_template.xlsx
+++ b/reformatted_data/gene_expression-recreated_template.xlsx
@@ -1481,7 +1481,7 @@
     <t>observed</t>
   </si>
   <si>
-    <t>Any characteristics of the population(s) studied, plus whether the result was taken from a subgroup of the cohort tested.</t>
+    <t>Cohort - any characteristics of the population(s) studied, plus whether the result was taken from a subgroup of the broader cohort tested.</t>
   </si>
   <si>
     <t>Caucasian males, subgroup high responders</t>
@@ -3245,7 +3245,7 @@
     <t>vaccine</t>
   </si>
   <si>
-    <t>exposure material vaccine ontology ID (VO)</t>
+    <t>exposure material</t>
   </si>
   <si>
     <t>VO:0000045; VO:0000046</t>
@@ -3413,7 +3413,7 @@
     <t>VO:0000642</t>
   </si>
   <si>
-    <t>exposure material - additional</t>
+    <t>additional exposure material</t>
   </si>
   <si>
     <t>Live attenuated vaccine TC-83 challenge</t>
@@ -4847,7 +4847,7 @@
     <t>Top functional network for genes preferentially upregulated in the high responder group</t>
   </si>
   <si>
-    <t>only TIFA was significantly differentially expressed at the concerned time point compared with baseline (D0 log2 mean expression, 3.38; D1 log2 fold change, 1.33; multiplicity-adjusted p value, 1.14E-09; Figure S6)</t>
+    <t>Only TIFA was significantly differentially expressed at the concerned time point compared with baseline (D0 log2 mean expression, 3.38; D1 log2 fold change, 1.33; multiplicity-adjusted p value, 1.14E-09; Figure S6)</t>
   </si>
   <si>
     <t>Genes in BTM M75</t>
@@ -5627,10 +5627,10 @@
     <t>347</t>
   </si>
   <si>
-    <t>ID of observation within its own submission</t>
-  </si>
-  <si>
-    <t>Uniq ID of observation within its submission type</t>
+    <t xml:space="preserve">ID of observation within a publication (PMID) and for its submission type </t>
+  </si>
+  <si>
+    <t>ID of observation within its submission type</t>
   </si>
   <si>
     <t>59</t>
